--- a/src/test/resources/BIP_Assessment 130617.xlsx
+++ b/src/test/resources/BIP_Assessment 130617.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="677">
   <si>
     <t>Theme</t>
   </si>
@@ -2853,9 +2853,6 @@
     <t>GIT</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Indicateurs existent pour identifier les menus les plus utilisés mais les mesures ne sont pas utilisées sauf en cas de chantier d'amélioration de l'appli</t>
   </si>
   <si>
@@ -2918,6 +2915,21 @@
   </si>
   <si>
     <t>Antoine BABOEUF</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>TITI</t>
+  </si>
+  <si>
+    <t>TUTU</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>THIS ONE</t>
   </si>
 </sst>
 </file>
@@ -4532,6 +4544,33 @@
     <xf numFmtId="10" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="46" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4564,33 +4603,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="41" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="46" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -5452,7 +5464,7 @@
         <v>621</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -5562,7 +5574,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5578,7 +5590,7 @@
     <col min="10" max="10" width="2.42578125" customWidth="1"/>
     <col min="11" max="11" width="48" customWidth="1"/>
     <col min="12" max="12" width="25.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="55.7109375" style="141" customWidth="1"/>
+    <col min="13" max="13" width="55.7109375" style="130" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="52" customFormat="1" ht="24" thickBot="1">
@@ -5595,7 +5607,7 @@
       <c r="G1" s="51"/>
       <c r="I1" s="90"/>
       <c r="L1" s="125"/>
-      <c r="M1" s="139"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:15" s="52" customFormat="1" ht="27" thickBot="1">
       <c r="A2" s="55"/>
@@ -5618,7 +5630,7 @@
         <v>636</v>
       </c>
       <c r="L2" s="117"/>
-      <c r="M2" s="140" t="str">
+      <c r="M2" s="129" t="str">
         <f>'Team Context'!C8</f>
         <v>BIP</v>
       </c>
@@ -5639,13 +5651,13 @@
       </c>
       <c r="L3" s="119"/>
       <c r="M3" s="122" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="9" customHeight="1">
       <c r="I4" s="90"/>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15">
       <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:15" s="100" customFormat="1" ht="49.5" customHeight="1">
@@ -5708,7 +5720,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="127" t="s">
         <v>646</v>
       </c>
       <c r="O7" s="77"/>
@@ -5743,7 +5755,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v>OK</v>
       </c>
-      <c r="M8" s="138" t="s">
+      <c r="M8" s="127" t="s">
         <v>647</v>
       </c>
       <c r="O8" s="77"/>
@@ -5778,7 +5790,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v>OK</v>
       </c>
-      <c r="M9" s="138" t="s">
+      <c r="M9" s="127" t="s">
         <v>648</v>
       </c>
       <c r="O9" s="77"/>
@@ -5796,7 +5808,7 @@
       <c r="D10" s="94" t="s">
         <v>645</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="132" t="s">
         <v>650</v>
       </c>
       <c r="F10" s="15" t="s">
@@ -5813,7 +5825,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v>KO</v>
       </c>
-      <c r="M10" s="138" t="s">
+      <c r="M10" s="127" t="s">
         <v>649</v>
       </c>
       <c r="O10" s="77"/>
@@ -5829,7 +5841,7 @@
         <v>563</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="E11" s="94" t="s">
         <v>645</v>
@@ -5846,7 +5858,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M11" s="138" t="s">
+      <c r="M11" s="127" t="s">
         <v>651</v>
       </c>
       <c r="O11" s="77"/>
@@ -5879,7 +5891,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M12" s="138" t="s">
+      <c r="M12" s="127" t="s">
         <v>652</v>
       </c>
       <c r="O12" s="77"/>
@@ -5912,7 +5924,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M13" s="138" t="s">
+      <c r="M13" s="127" t="s">
         <v>653</v>
       </c>
       <c r="O13" s="77"/>
@@ -5947,7 +5959,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v>OK</v>
       </c>
-      <c r="M14" s="138"/>
+      <c r="M14" s="127"/>
       <c r="O14" s="77"/>
     </row>
     <row r="15" spans="1:15" s="57" customFormat="1" ht="43.5" customHeight="1">
@@ -5978,7 +5990,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M15" s="138"/>
+      <c r="M15" s="127"/>
       <c r="O15" s="77"/>
     </row>
     <row r="16" spans="1:15" s="57" customFormat="1" ht="70.5" customHeight="1">
@@ -5992,7 +6004,7 @@
         <v>613</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="E16" s="94" t="s">
         <v>645</v>
@@ -6007,7 +6019,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M16" s="138"/>
+      <c r="M16" s="127"/>
       <c r="O16" s="77"/>
     </row>
     <row r="17" spans="1:15" s="57" customFormat="1" ht="153" customHeight="1">
@@ -6021,7 +6033,7 @@
         <v>566</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="E17" s="94" t="s">
         <v>645</v>
@@ -6038,8 +6050,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M17" s="138" t="s">
-        <v>655</v>
+      <c r="M17" s="127" t="s">
+        <v>654</v>
       </c>
       <c r="O17" s="77"/>
     </row>
@@ -6054,7 +6066,7 @@
         <v>567</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="E18" s="94" t="s">
         <v>645</v>
@@ -6071,8 +6083,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M18" s="138" t="s">
-        <v>656</v>
+      <c r="M18" s="127" t="s">
+        <v>655</v>
       </c>
       <c r="O18" s="77"/>
     </row>
@@ -6104,8 +6116,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M19" s="138" t="s">
-        <v>657</v>
+      <c r="M19" s="127" t="s">
+        <v>656</v>
       </c>
       <c r="O19" s="77"/>
     </row>
@@ -6122,7 +6134,7 @@
       <c r="D20" s="94" t="s">
         <v>645</v>
       </c>
-      <c r="E20" s="143" t="s">
+      <c r="E20" s="132" t="s">
         <v>650</v>
       </c>
       <c r="F20" s="15" t="s">
@@ -6139,8 +6151,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v>KO</v>
       </c>
-      <c r="M20" s="138" t="s">
-        <v>658</v>
+      <c r="M20" s="127" t="s">
+        <v>657</v>
       </c>
       <c r="O20" s="77"/>
     </row>
@@ -6170,7 +6182,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M21" s="138"/>
+      <c r="M21" s="127"/>
       <c r="O21" s="77"/>
     </row>
     <row r="22" spans="1:15" s="57" customFormat="1" ht="82.5" customHeight="1">
@@ -6201,8 +6213,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M22" s="138" t="s">
-        <v>659</v>
+      <c r="M22" s="127" t="s">
+        <v>658</v>
       </c>
       <c r="O22" s="77"/>
     </row>
@@ -6234,8 +6246,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M23" s="138" t="s">
-        <v>660</v>
+      <c r="M23" s="127" t="s">
+        <v>659</v>
       </c>
       <c r="O23" s="77"/>
     </row>
@@ -6267,8 +6279,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M24" s="138" t="s">
-        <v>661</v>
+      <c r="M24" s="127" t="s">
+        <v>660</v>
       </c>
       <c r="O24" s="77"/>
     </row>
@@ -6300,8 +6312,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M25" s="138" t="s">
-        <v>662</v>
+      <c r="M25" s="127" t="s">
+        <v>661</v>
       </c>
       <c r="O25" s="77"/>
     </row>
@@ -6333,7 +6345,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M26" s="138"/>
+      <c r="M26" s="127"/>
       <c r="O26" s="77"/>
     </row>
     <row r="27" spans="1:15" s="57" customFormat="1" ht="95.25" customHeight="1">
@@ -6364,8 +6376,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M27" s="138" t="s">
-        <v>663</v>
+      <c r="M27" s="127" t="s">
+        <v>662</v>
       </c>
       <c r="O27" s="77"/>
     </row>
@@ -6395,7 +6407,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M28" s="138"/>
+      <c r="M28" s="127"/>
       <c r="O28" s="77"/>
     </row>
     <row r="29" spans="1:15" s="57" customFormat="1" ht="60" customHeight="1">
@@ -6424,8 +6436,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M29" s="138" t="s">
-        <v>664</v>
+      <c r="M29" s="127" t="s">
+        <v>663</v>
       </c>
       <c r="O29" s="77"/>
     </row>
@@ -6455,8 +6467,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M30" s="138" t="s">
-        <v>665</v>
+      <c r="M30" s="127" t="s">
+        <v>664</v>
       </c>
       <c r="O30" s="77"/>
     </row>
@@ -6486,8 +6498,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M31" s="138" t="s">
-        <v>666</v>
+      <c r="M31" s="127" t="s">
+        <v>665</v>
       </c>
       <c r="O31" s="77"/>
     </row>
@@ -6517,8 +6529,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M32" s="138" t="s">
-        <v>667</v>
+      <c r="M32" s="127" t="s">
+        <v>666</v>
       </c>
       <c r="O32" s="77"/>
     </row>
@@ -6548,7 +6560,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M33" s="138"/>
+      <c r="M33" s="127"/>
       <c r="O33" s="77"/>
     </row>
     <row r="34" spans="1:15" s="57" customFormat="1" ht="30" customHeight="1">
@@ -6577,8 +6589,8 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M34" s="138" t="s">
-        <v>668</v>
+      <c r="M34" s="127" t="s">
+        <v>667</v>
       </c>
       <c r="O34" s="77"/>
     </row>
@@ -6593,7 +6605,7 @@
         <v>582</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="E35" s="94" t="s">
         <v>645</v>
@@ -6667,7 +6679,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M37" s="138"/>
+      <c r="M37" s="127"/>
       <c r="O37" s="77"/>
     </row>
     <row r="38" spans="1:15" s="57" customFormat="1" ht="53.25" customHeight="1">
@@ -6697,7 +6709,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M38" s="138"/>
+      <c r="M38" s="127"/>
     </row>
     <row r="39" spans="1:15" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="57" t="s">
@@ -6719,14 +6731,14 @@
       <c r="G39" s="105"/>
       <c r="I39" s="106"/>
       <c r="K39" s="57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L39" s="124" t="str">
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M39" s="138" t="s">
-        <v>669</v>
+      <c r="M39" s="127" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="57" customFormat="1" ht="60" customHeight="1" thickBot="1">
@@ -6755,7 +6767,7 @@
         <f>IF(Table13[[#This Row],[Type of questions]]="Foundation Practices",IF(Table13[[#This Row],[Applicable to project (Y/N)]]&lt;&gt;"N",IF(Table13[[#This Row],[Applied (Y/N)]]="Y","OK","KO"),"NA"),"")</f>
         <v/>
       </c>
-      <c r="M40" s="142"/>
+      <c r="M40" s="131"/>
     </row>
     <row r="41" spans="1:15">
       <c r="K41" s="86" t="s">
@@ -6765,8 +6777,8 @@
         <f>IF(COUNTIF(L7:L40,"KO")&gt;0,"KO","OK")</f>
         <v>KO</v>
       </c>
-      <c r="M41" s="144" t="s">
-        <v>671</v>
+      <c r="M41" s="133" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -6777,7 +6789,7 @@
         <f>COUNTIF(Table13[Applicable to project (Y/N)],("&lt;&gt;N"))-L45</f>
         <v>28</v>
       </c>
-      <c r="M42" s="145"/>
+      <c r="M42" s="134"/>
     </row>
     <row r="43" spans="1:15">
       <c r="K43" t="s">
@@ -6787,7 +6799,7 @@
         <f>IF(COUNTIF(Table13[Applied (Y/N)],"Y")-L45&lt;=0,0,COUNTIF(Table13[Applied (Y/N)],"Y")-L45)</f>
         <v>19</v>
       </c>
-      <c r="M43" s="145"/>
+      <c r="M43" s="134"/>
     </row>
     <row r="44" spans="1:15">
       <c r="K44" t="s">
@@ -6797,7 +6809,7 @@
         <f>L43/L42</f>
         <v>0.6785714285714286</v>
       </c>
-      <c r="M44" s="145"/>
+      <c r="M44" s="134"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" thickBot="1">
       <c r="K45" t="s">
@@ -6807,7 +6819,7 @@
         <f>COUNTIFS(Table13[Type of questions],"Foundation Practices",Table13[Applicable to project (Y/N)],("&lt;&gt;N"))</f>
         <v>6</v>
       </c>
-      <c r="M45" s="146"/>
+      <c r="M45" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10871,18 +10883,18 @@
       <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="140" t="s">
         <v>302</v>
       </c>
       <c r="B2" s="57"/>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="141" t="s">
         <v>303</v>
       </c>
       <c r="D2" s="57"/>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="129">
+      <c r="F2" s="138">
         <v>8</v>
       </c>
       <c r="G2" s="60" t="s">
@@ -10899,12 +10911,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5">
-      <c r="A3" s="131"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="57"/>
-      <c r="C3" s="132"/>
+      <c r="C3" s="141"/>
       <c r="D3" s="57"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
       <c r="G3" s="60" t="s">
         <v>309</v>
       </c>
@@ -10919,12 +10931,12 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="131"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="57"/>
-      <c r="C4" s="132"/>
+      <c r="C4" s="141"/>
       <c r="D4" s="57"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="60" t="s">
         <v>313</v>
       </c>
@@ -10939,12 +10951,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="33.75">
-      <c r="A5" s="131"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="57"/>
-      <c r="C5" s="132"/>
+      <c r="C5" s="141"/>
       <c r="D5" s="57"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="60" t="s">
         <v>317</v>
       </c>
@@ -10957,73 +10969,73 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="131"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="57"/>
-      <c r="C6" s="132"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="57"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="62" t="s">
         <v>320</v>
       </c>
       <c r="H6" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="131"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="57"/>
-      <c r="C7" s="132"/>
+      <c r="C7" s="141"/>
       <c r="D7" s="57"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="60" t="s">
         <v>319</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="22.5">
-      <c r="A8" s="131"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="57"/>
-      <c r="C8" s="132"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="57"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="60" t="s">
         <v>322</v>
       </c>
       <c r="H8" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
     </row>
     <row r="9" spans="1:10" ht="22.5">
-      <c r="A9" s="131"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="57"/>
-      <c r="C9" s="132"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="60" t="s">
         <v>324</v>
       </c>
       <c r="H9" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="131"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="57"/>
-      <c r="C10" s="132"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="57"/>
       <c r="E10" s="59"/>
       <c r="F10" s="58"/>
@@ -11033,14 +11045,14 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="131"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="57"/>
-      <c r="C11" s="132"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="138">
         <v>3</v>
       </c>
       <c r="G11" s="60" t="s">
@@ -11049,49 +11061,49 @@
       <c r="H11" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="139" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="130" t="s">
+      <c r="J11" s="139" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="123.75">
-      <c r="A12" s="131"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="57"/>
-      <c r="C12" s="132"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="60" t="s">
         <v>331</v>
       </c>
       <c r="H12" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="1:10" ht="33.75">
-      <c r="A13" s="131"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="57"/>
-      <c r="C13" s="132"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="60" t="s">
         <v>333</v>
       </c>
       <c r="H13" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="131"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="57"/>
-      <c r="C14" s="132"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
       <c r="F14" s="58"/>
@@ -11100,14 +11112,14 @@
       <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="131"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="57"/>
-      <c r="C15" s="132"/>
+      <c r="C15" s="141"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="128" t="s">
+      <c r="E15" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="F15" s="129">
+      <c r="F15" s="138">
         <v>2</v>
       </c>
       <c r="G15" s="60" t="s">
@@ -11116,29 +11128,29 @@
       <c r="H15" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="I15" s="130" t="s">
+      <c r="I15" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="J15" s="127"/>
+      <c r="J15" s="136"/>
     </row>
     <row r="16" spans="1:10" ht="22.5">
-      <c r="A16" s="131"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="57"/>
-      <c r="C16" s="132"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="60" t="s">
         <v>339</v>
       </c>
       <c r="H16" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="I16" s="130"/>
-      <c r="J16" s="127"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="131"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -11147,7 +11159,7 @@
       <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="131"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
@@ -11158,77 +11170,77 @@
       <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="131"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="57"/>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="142" t="s">
         <v>341</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="137" t="s">
         <v>342</v>
       </c>
-      <c r="F19" s="129">
+      <c r="F19" s="138">
         <v>4</v>
       </c>
       <c r="G19" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="I19" s="130" t="s">
+      <c r="I19" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="J19" s="130" t="s">
+      <c r="J19" s="139" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="131"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="133"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="57"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="60" t="s">
         <v>346</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="131"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="57"/>
-      <c r="C21" s="133"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="57"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="60" t="s">
         <v>348</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="1:10" ht="33.75">
-      <c r="A22" s="131"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="57"/>
-      <c r="C22" s="133"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="57"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="131"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="57"/>
-      <c r="C23" s="133"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="57"/>
       <c r="E23" s="59"/>
       <c r="F23" s="58"/>
@@ -11237,9 +11249,9 @@
       <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="131"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="57"/>
-      <c r="C24" s="133"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="57"/>
       <c r="E24" s="65" t="s">
         <v>351</v>
@@ -11256,9 +11268,9 @@
       <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="131"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="133"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="57"/>
       <c r="E25" s="59"/>
       <c r="F25" s="58"/>
@@ -11267,9 +11279,9 @@
       <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="23.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="133"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="57"/>
       <c r="E26" s="65" t="s">
         <v>354</v>
@@ -11301,13 +11313,13 @@
       <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="56.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="F29" s="129">
+      <c r="F29" s="138">
         <v>10</v>
       </c>
       <c r="G29" s="67" t="s">
@@ -11324,9 +11336,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="22.5">
-      <c r="A30" s="134"/>
-      <c r="C30" s="132"/>
-      <c r="F30" s="129"/>
+      <c r="A30" s="143"/>
+      <c r="C30" s="141"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="67" t="s">
         <v>363</v>
       </c>
@@ -11341,9 +11353,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="45">
-      <c r="A31" s="134"/>
-      <c r="C31" s="132"/>
-      <c r="F31" s="129"/>
+      <c r="A31" s="143"/>
+      <c r="C31" s="141"/>
+      <c r="F31" s="138"/>
       <c r="G31" s="60" t="s">
         <v>367</v>
       </c>
@@ -11358,110 +11370,110 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="134"/>
-      <c r="C32" s="132"/>
-      <c r="F32" s="129"/>
+      <c r="A32" s="143"/>
+      <c r="C32" s="141"/>
+      <c r="F32" s="138"/>
       <c r="G32" s="60" t="s">
         <v>371</v>
       </c>
       <c r="H32" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="134"/>
-      <c r="C33" s="132"/>
-      <c r="F33" s="129"/>
+      <c r="A33" s="143"/>
+      <c r="C33" s="141"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="60" t="s">
         <v>373</v>
       </c>
       <c r="H33" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
     </row>
     <row r="34" spans="1:10" ht="33.75">
-      <c r="A34" s="134"/>
-      <c r="C34" s="132"/>
-      <c r="F34" s="129"/>
+      <c r="A34" s="143"/>
+      <c r="C34" s="141"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="67" t="s">
         <v>375</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
     </row>
     <row r="35" spans="1:10" ht="22.5">
-      <c r="A35" s="134"/>
-      <c r="C35" s="132"/>
-      <c r="F35" s="129"/>
+      <c r="A35" s="143"/>
+      <c r="C35" s="141"/>
+      <c r="F35" s="138"/>
       <c r="G35" s="67" t="s">
         <v>377</v>
       </c>
       <c r="H35" s="57"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="134"/>
-      <c r="C36" s="132"/>
-      <c r="F36" s="129"/>
+      <c r="A36" s="143"/>
+      <c r="C36" s="141"/>
+      <c r="F36" s="138"/>
       <c r="G36" s="60" t="s">
         <v>378</v>
       </c>
       <c r="H36" s="62"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
     </row>
     <row r="37" spans="1:10" ht="22.5">
-      <c r="A37" s="134"/>
-      <c r="C37" s="132"/>
-      <c r="F37" s="129"/>
+      <c r="A37" s="143"/>
+      <c r="C37" s="141"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="67" t="s">
         <v>379</v>
       </c>
       <c r="H37" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
     </row>
     <row r="38" spans="1:10" ht="33.75">
-      <c r="A38" s="134"/>
-      <c r="C38" s="132"/>
-      <c r="F38" s="129"/>
+      <c r="A38" s="143"/>
+      <c r="C38" s="141"/>
+      <c r="F38" s="138"/>
       <c r="G38" s="60" t="s">
         <v>369</v>
       </c>
       <c r="H38" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="134"/>
+      <c r="A39" s="143"/>
       <c r="F39" s="58"/>
       <c r="I39" s="60"/>
       <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="134"/>
+      <c r="A40" s="143"/>
       <c r="F40" s="58"/>
       <c r="I40" s="60"/>
       <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="67.5">
-      <c r="A41" s="134"/>
-      <c r="C41" s="133" t="s">
+      <c r="A41" s="143"/>
+      <c r="C41" s="142" t="s">
         <v>341</v>
       </c>
-      <c r="F41" s="129">
+      <c r="F41" s="138">
         <v>28</v>
       </c>
       <c r="G41" s="67" t="s">
@@ -11478,9 +11490,9 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="134"/>
-      <c r="C42" s="133"/>
-      <c r="F42" s="129"/>
+      <c r="A42" s="143"/>
+      <c r="C42" s="142"/>
+      <c r="F42" s="138"/>
       <c r="G42" s="60" t="s">
         <v>385</v>
       </c>
@@ -11495,9 +11507,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="45">
-      <c r="A43" s="134"/>
-      <c r="C43" s="133"/>
-      <c r="F43" s="129"/>
+      <c r="A43" s="143"/>
+      <c r="C43" s="142"/>
+      <c r="F43" s="138"/>
       <c r="G43" s="61" t="s">
         <v>389</v>
       </c>
@@ -11512,9 +11524,9 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="22.5">
-      <c r="A44" s="134"/>
-      <c r="C44" s="133"/>
-      <c r="F44" s="129"/>
+      <c r="A44" s="143"/>
+      <c r="C44" s="142"/>
+      <c r="F44" s="138"/>
       <c r="G44" s="60" t="s">
         <v>393</v>
       </c>
@@ -11529,9 +11541,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="22.5">
-      <c r="A45" s="134"/>
-      <c r="C45" s="133"/>
-      <c r="F45" s="129"/>
+      <c r="A45" s="143"/>
+      <c r="C45" s="142"/>
+      <c r="F45" s="138"/>
       <c r="G45" s="60" t="s">
         <v>397</v>
       </c>
@@ -11546,9 +11558,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="22.5">
-      <c r="A46" s="134"/>
-      <c r="C46" s="133"/>
-      <c r="F46" s="129"/>
+      <c r="A46" s="143"/>
+      <c r="C46" s="142"/>
+      <c r="F46" s="138"/>
       <c r="G46" s="60" t="s">
         <v>401</v>
       </c>
@@ -11563,9 +11575,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="22.5">
-      <c r="A47" s="134"/>
-      <c r="C47" s="133"/>
-      <c r="F47" s="129"/>
+      <c r="A47" s="143"/>
+      <c r="C47" s="142"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="60" t="s">
         <v>405</v>
       </c>
@@ -11580,286 +11592,286 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="22.5">
-      <c r="A48" s="134"/>
-      <c r="C48" s="133"/>
-      <c r="F48" s="129"/>
+      <c r="A48" s="143"/>
+      <c r="C48" s="142"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="67" t="s">
         <v>409</v>
       </c>
       <c r="H48" s="60"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="134"/>
-      <c r="C49" s="133"/>
-      <c r="F49" s="129"/>
+      <c r="A49" s="143"/>
+      <c r="C49" s="142"/>
+      <c r="F49" s="138"/>
       <c r="G49" s="60" t="s">
         <v>410</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="I49" s="127"/>
-      <c r="J49" s="127"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
     </row>
     <row r="50" spans="1:10" ht="22.5">
-      <c r="A50" s="134"/>
-      <c r="C50" s="133"/>
-      <c r="F50" s="129"/>
+      <c r="A50" s="143"/>
+      <c r="C50" s="142"/>
+      <c r="F50" s="138"/>
       <c r="G50" s="60" t="s">
         <v>412</v>
       </c>
       <c r="H50" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="134"/>
-      <c r="C51" s="133"/>
-      <c r="F51" s="129"/>
+      <c r="A51" s="143"/>
+      <c r="C51" s="142"/>
+      <c r="F51" s="138"/>
       <c r="G51" s="60" t="s">
         <v>414</v>
       </c>
       <c r="H51" s="60"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="127"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
     </row>
     <row r="52" spans="1:10" ht="22.5">
-      <c r="A52" s="134"/>
-      <c r="C52" s="133"/>
-      <c r="F52" s="129"/>
+      <c r="A52" s="143"/>
+      <c r="C52" s="142"/>
+      <c r="F52" s="138"/>
       <c r="G52" s="60" t="s">
         <v>415</v>
       </c>
       <c r="H52" s="60"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="134"/>
-      <c r="C53" s="133"/>
-      <c r="F53" s="129"/>
+      <c r="A53" s="143"/>
+      <c r="C53" s="142"/>
+      <c r="F53" s="138"/>
       <c r="G53" s="60" t="s">
         <v>416</v>
       </c>
       <c r="H53" s="60"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
     </row>
     <row r="54" spans="1:10" ht="22.5">
-      <c r="A54" s="134"/>
-      <c r="C54" s="133"/>
-      <c r="F54" s="129"/>
+      <c r="A54" s="143"/>
+      <c r="C54" s="142"/>
+      <c r="F54" s="138"/>
       <c r="G54" s="60" t="s">
         <v>417</v>
       </c>
       <c r="H54" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="134"/>
-      <c r="C55" s="133"/>
-      <c r="F55" s="129"/>
+      <c r="A55" s="143"/>
+      <c r="C55" s="142"/>
+      <c r="F55" s="138"/>
       <c r="G55" s="60" t="s">
         <v>419</v>
       </c>
       <c r="H55" s="60"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="134"/>
-      <c r="C56" s="133"/>
-      <c r="F56" s="129"/>
+      <c r="A56" s="143"/>
+      <c r="C56" s="142"/>
+      <c r="F56" s="138"/>
       <c r="G56" s="60" t="s">
         <v>420</v>
       </c>
       <c r="H56" s="60"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
     </row>
     <row r="57" spans="1:10" ht="22.5">
-      <c r="A57" s="134"/>
-      <c r="C57" s="133"/>
-      <c r="F57" s="129"/>
+      <c r="A57" s="143"/>
+      <c r="C57" s="142"/>
+      <c r="F57" s="138"/>
       <c r="G57" s="60" t="s">
         <v>421</v>
       </c>
       <c r="H57" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
     </row>
     <row r="58" spans="1:10" ht="22.5">
-      <c r="A58" s="134"/>
-      <c r="C58" s="133"/>
-      <c r="F58" s="129"/>
+      <c r="A58" s="143"/>
+      <c r="C58" s="142"/>
+      <c r="F58" s="138"/>
       <c r="G58" s="60" t="s">
         <v>422</v>
       </c>
       <c r="H58" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
     </row>
     <row r="59" spans="1:10" ht="22.5">
-      <c r="A59" s="134"/>
-      <c r="C59" s="133"/>
-      <c r="F59" s="129"/>
+      <c r="A59" s="143"/>
+      <c r="C59" s="142"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="60" t="s">
         <v>423</v>
       </c>
       <c r="H59" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="I59" s="127"/>
-      <c r="J59" s="127"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
     </row>
     <row r="60" spans="1:10" ht="22.5">
-      <c r="A60" s="134"/>
-      <c r="C60" s="133"/>
-      <c r="F60" s="129"/>
+      <c r="A60" s="143"/>
+      <c r="C60" s="142"/>
+      <c r="F60" s="138"/>
       <c r="G60" s="60" t="s">
         <v>424</v>
       </c>
       <c r="H60" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="136"/>
     </row>
     <row r="61" spans="1:10" ht="22.5">
-      <c r="A61" s="134"/>
-      <c r="C61" s="133"/>
-      <c r="F61" s="129"/>
+      <c r="A61" s="143"/>
+      <c r="C61" s="142"/>
+      <c r="F61" s="138"/>
       <c r="G61" s="60" t="s">
         <v>425</v>
       </c>
       <c r="H61" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="I61" s="127"/>
-      <c r="J61" s="127"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="136"/>
     </row>
     <row r="62" spans="1:10" ht="22.5">
-      <c r="A62" s="134"/>
-      <c r="C62" s="133"/>
-      <c r="F62" s="129"/>
+      <c r="A62" s="143"/>
+      <c r="C62" s="142"/>
+      <c r="F62" s="138"/>
       <c r="G62" s="60" t="s">
         <v>427</v>
       </c>
       <c r="H62" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="I62" s="127"/>
-      <c r="J62" s="127"/>
+      <c r="I62" s="136"/>
+      <c r="J62" s="136"/>
     </row>
     <row r="63" spans="1:10" ht="22.5">
-      <c r="A63" s="134"/>
-      <c r="C63" s="133"/>
-      <c r="F63" s="129"/>
+      <c r="A63" s="143"/>
+      <c r="C63" s="142"/>
+      <c r="F63" s="138"/>
       <c r="G63" s="67" t="s">
         <v>429</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="I63" s="127"/>
-      <c r="J63" s="127"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="136"/>
     </row>
     <row r="64" spans="1:10" ht="22.5">
-      <c r="A64" s="134"/>
-      <c r="C64" s="133"/>
-      <c r="F64" s="129"/>
+      <c r="A64" s="143"/>
+      <c r="C64" s="142"/>
+      <c r="F64" s="138"/>
       <c r="G64" s="60" t="s">
         <v>431</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="136"/>
     </row>
     <row r="65" spans="1:10" ht="33.75">
-      <c r="A65" s="134"/>
-      <c r="C65" s="133"/>
-      <c r="F65" s="129"/>
+      <c r="A65" s="143"/>
+      <c r="C65" s="142"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="60" t="s">
         <v>433</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="136"/>
     </row>
     <row r="66" spans="1:10" ht="22.5">
-      <c r="A66" s="134"/>
-      <c r="C66" s="133"/>
-      <c r="F66" s="129"/>
+      <c r="A66" s="143"/>
+      <c r="C66" s="142"/>
+      <c r="F66" s="138"/>
       <c r="G66" s="60" t="s">
         <v>434</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="136"/>
     </row>
     <row r="67" spans="1:10" ht="22.5">
-      <c r="A67" s="134"/>
-      <c r="C67" s="133"/>
-      <c r="F67" s="129"/>
+      <c r="A67" s="143"/>
+      <c r="C67" s="142"/>
+      <c r="F67" s="138"/>
       <c r="G67" s="60" t="s">
         <v>435</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
+      <c r="I67" s="136"/>
+      <c r="J67" s="136"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="134"/>
-      <c r="C68" s="133"/>
-      <c r="F68" s="129"/>
+      <c r="A68" s="143"/>
+      <c r="C68" s="142"/>
+      <c r="F68" s="138"/>
       <c r="G68" s="60" t="s">
         <v>407</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="136"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="134"/>
+      <c r="A69" s="143"/>
       <c r="F69" s="58"/>
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
       <c r="J69" s="60"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="134"/>
+      <c r="A70" s="143"/>
       <c r="F70" s="58"/>
       <c r="H70" s="60"/>
       <c r="I70" s="60"/>
       <c r="J70" s="60"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="134"/>
-      <c r="C71" s="135" t="s">
+      <c r="A71" s="143"/>
+      <c r="C71" s="144" t="s">
         <v>438</v>
       </c>
-      <c r="F71" s="129">
+      <c r="F71" s="138">
         <v>23</v>
       </c>
       <c r="G71" s="60" t="s">
@@ -11876,9 +11888,9 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="22.5">
-      <c r="A72" s="134"/>
-      <c r="C72" s="135"/>
-      <c r="F72" s="129"/>
+      <c r="A72" s="143"/>
+      <c r="C72" s="144"/>
+      <c r="F72" s="138"/>
       <c r="G72" s="60" t="s">
         <v>443</v>
       </c>
@@ -11893,9 +11905,9 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="134"/>
-      <c r="C73" s="135"/>
-      <c r="F73" s="129"/>
+      <c r="A73" s="143"/>
+      <c r="C73" s="144"/>
+      <c r="F73" s="138"/>
       <c r="G73" s="60" t="s">
         <v>447</v>
       </c>
@@ -11910,9 +11922,9 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="22.5">
-      <c r="A74" s="134"/>
-      <c r="C74" s="135"/>
-      <c r="F74" s="129"/>
+      <c r="A74" s="143"/>
+      <c r="C74" s="144"/>
+      <c r="F74" s="138"/>
       <c r="G74" s="60" t="s">
         <v>451</v>
       </c>
@@ -11925,9 +11937,9 @@
       <c r="J74" s="60"/>
     </row>
     <row r="75" spans="1:10" ht="33.75">
-      <c r="A75" s="134"/>
-      <c r="C75" s="135"/>
-      <c r="F75" s="129"/>
+      <c r="A75" s="143"/>
+      <c r="C75" s="144"/>
+      <c r="F75" s="138"/>
       <c r="G75" s="60" t="s">
         <v>453</v>
       </c>
@@ -11942,9 +11954,9 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="22.5">
-      <c r="A76" s="134"/>
-      <c r="C76" s="135"/>
-      <c r="F76" s="129"/>
+      <c r="A76" s="143"/>
+      <c r="C76" s="144"/>
+      <c r="F76" s="138"/>
       <c r="G76" s="60" t="s">
         <v>457</v>
       </c>
@@ -11957,9 +11969,9 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="33.75">
-      <c r="A77" s="134"/>
-      <c r="C77" s="135"/>
-      <c r="F77" s="129"/>
+      <c r="A77" s="143"/>
+      <c r="C77" s="144"/>
+      <c r="F77" s="138"/>
       <c r="G77" s="60" t="s">
         <v>460</v>
       </c>
@@ -11974,195 +11986,195 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="134"/>
-      <c r="C78" s="135"/>
-      <c r="F78" s="129"/>
+      <c r="A78" s="143"/>
+      <c r="C78" s="144"/>
+      <c r="F78" s="138"/>
       <c r="G78" s="60" t="s">
         <v>464</v>
       </c>
       <c r="H78" s="60"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="145"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="134"/>
-      <c r="C79" s="135"/>
-      <c r="F79" s="129"/>
+      <c r="A79" s="143"/>
+      <c r="C79" s="144"/>
+      <c r="F79" s="138"/>
       <c r="G79" s="60" t="s">
         <v>465</v>
       </c>
       <c r="H79" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="I79" s="136"/>
-      <c r="J79" s="136"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="134"/>
-      <c r="C80" s="135"/>
-      <c r="F80" s="129"/>
+      <c r="A80" s="143"/>
+      <c r="C80" s="144"/>
+      <c r="F80" s="138"/>
       <c r="G80" s="60" t="s">
         <v>466</v>
       </c>
       <c r="H80" s="60"/>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136"/>
+      <c r="I80" s="145"/>
+      <c r="J80" s="145"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="134"/>
-      <c r="C81" s="135"/>
-      <c r="F81" s="129"/>
+      <c r="A81" s="143"/>
+      <c r="C81" s="144"/>
+      <c r="F81" s="138"/>
       <c r="G81" s="67" t="s">
         <v>467</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136"/>
+      <c r="I81" s="145"/>
+      <c r="J81" s="145"/>
     </row>
     <row r="82" spans="1:10" ht="22.5">
-      <c r="A82" s="134"/>
-      <c r="C82" s="135"/>
-      <c r="F82" s="129"/>
+      <c r="A82" s="143"/>
+      <c r="C82" s="144"/>
+      <c r="F82" s="138"/>
       <c r="G82" s="60" t="s">
         <v>469</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="I82" s="136"/>
-      <c r="J82" s="136"/>
+      <c r="I82" s="145"/>
+      <c r="J82" s="145"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="134"/>
-      <c r="C83" s="135"/>
-      <c r="F83" s="129"/>
+      <c r="A83" s="143"/>
+      <c r="C83" s="144"/>
+      <c r="F83" s="138"/>
       <c r="G83" s="60" t="s">
         <v>471</v>
       </c>
       <c r="H83" s="60"/>
-      <c r="I83" s="136"/>
-      <c r="J83" s="136"/>
+      <c r="I83" s="145"/>
+      <c r="J83" s="145"/>
     </row>
     <row r="84" spans="1:10" ht="22.5">
-      <c r="A84" s="134"/>
-      <c r="C84" s="135"/>
-      <c r="F84" s="129"/>
+      <c r="A84" s="143"/>
+      <c r="C84" s="144"/>
+      <c r="F84" s="138"/>
       <c r="G84" s="60" t="s">
         <v>472</v>
       </c>
       <c r="H84" s="60"/>
-      <c r="I84" s="136"/>
-      <c r="J84" s="136"/>
+      <c r="I84" s="145"/>
+      <c r="J84" s="145"/>
     </row>
     <row r="85" spans="1:10" ht="22.5">
-      <c r="A85" s="134"/>
-      <c r="C85" s="135"/>
-      <c r="F85" s="129"/>
+      <c r="A85" s="143"/>
+      <c r="C85" s="144"/>
+      <c r="F85" s="138"/>
       <c r="G85" s="67" t="s">
         <v>473</v>
       </c>
       <c r="H85" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="I85" s="136"/>
-      <c r="J85" s="136"/>
+      <c r="I85" s="145"/>
+      <c r="J85" s="145"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="134"/>
-      <c r="C86" s="135"/>
-      <c r="F86" s="129"/>
+      <c r="A86" s="143"/>
+      <c r="C86" s="144"/>
+      <c r="F86" s="138"/>
       <c r="G86" s="60" t="s">
         <v>475</v>
       </c>
       <c r="H86" s="60"/>
-      <c r="I86" s="136"/>
-      <c r="J86" s="136"/>
+      <c r="I86" s="145"/>
+      <c r="J86" s="145"/>
     </row>
     <row r="87" spans="1:10" ht="22.5">
-      <c r="A87" s="134"/>
-      <c r="C87" s="135"/>
-      <c r="F87" s="129"/>
+      <c r="A87" s="143"/>
+      <c r="C87" s="144"/>
+      <c r="F87" s="138"/>
       <c r="G87" s="60" t="s">
         <v>458</v>
       </c>
       <c r="H87" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="I87" s="136"/>
-      <c r="J87" s="136"/>
+      <c r="I87" s="145"/>
+      <c r="J87" s="145"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="134"/>
-      <c r="C88" s="135"/>
-      <c r="F88" s="129"/>
+      <c r="A88" s="143"/>
+      <c r="C88" s="144"/>
+      <c r="F88" s="138"/>
       <c r="G88" s="60" t="s">
         <v>476</v>
       </c>
       <c r="H88" s="60"/>
-      <c r="I88" s="136"/>
-      <c r="J88" s="136"/>
+      <c r="I88" s="145"/>
+      <c r="J88" s="145"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="134"/>
-      <c r="C89" s="135"/>
-      <c r="F89" s="129"/>
+      <c r="A89" s="143"/>
+      <c r="C89" s="144"/>
+      <c r="F89" s="138"/>
       <c r="G89" s="60" t="s">
         <v>477</v>
       </c>
       <c r="H89" s="60"/>
-      <c r="I89" s="136"/>
-      <c r="J89" s="136"/>
+      <c r="I89" s="145"/>
+      <c r="J89" s="145"/>
     </row>
     <row r="90" spans="1:10" ht="22.5">
-      <c r="A90" s="134"/>
-      <c r="C90" s="135"/>
-      <c r="F90" s="129"/>
+      <c r="A90" s="143"/>
+      <c r="C90" s="144"/>
+      <c r="F90" s="138"/>
       <c r="G90" s="60" t="s">
         <v>478</v>
       </c>
       <c r="H90" s="60"/>
-      <c r="I90" s="136"/>
-      <c r="J90" s="136"/>
+      <c r="I90" s="145"/>
+      <c r="J90" s="145"/>
     </row>
     <row r="91" spans="1:10" ht="22.5">
-      <c r="A91" s="134"/>
-      <c r="C91" s="135"/>
-      <c r="F91" s="129"/>
+      <c r="A91" s="143"/>
+      <c r="C91" s="144"/>
+      <c r="F91" s="138"/>
       <c r="G91" s="60" t="s">
         <v>479</v>
       </c>
       <c r="H91" s="60"/>
-      <c r="I91" s="136"/>
-      <c r="J91" s="136"/>
+      <c r="I91" s="145"/>
+      <c r="J91" s="145"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="134"/>
-      <c r="C92" s="135"/>
-      <c r="F92" s="129"/>
+      <c r="A92" s="143"/>
+      <c r="C92" s="144"/>
+      <c r="F92" s="138"/>
       <c r="G92" s="60" t="s">
         <v>480</v>
       </c>
       <c r="H92" s="60"/>
-      <c r="I92" s="136"/>
-      <c r="J92" s="136"/>
+      <c r="I92" s="145"/>
+      <c r="J92" s="145"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="134"/>
-      <c r="C93" s="135"/>
-      <c r="F93" s="129"/>
+      <c r="A93" s="143"/>
+      <c r="C93" s="144"/>
+      <c r="F93" s="138"/>
       <c r="G93" s="60" t="s">
         <v>481</v>
       </c>
       <c r="H93" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="I93" s="136"/>
-      <c r="J93" s="136"/>
+      <c r="I93" s="145"/>
+      <c r="J93" s="145"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="134"/>
+      <c r="A94" s="143"/>
       <c r="F94" s="58"/>
       <c r="G94" s="57"/>
       <c r="H94" s="60"/>
@@ -12170,7 +12182,7 @@
       <c r="J94" s="60"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="134"/>
+      <c r="A95" s="143"/>
       <c r="F95" s="58"/>
       <c r="G95" s="57"/>
       <c r="H95" s="60"/>
@@ -12178,11 +12190,11 @@
       <c r="J95" s="60"/>
     </row>
     <row r="96" spans="1:10" ht="22.5">
-      <c r="A96" s="134"/>
-      <c r="C96" s="137" t="s">
+      <c r="A96" s="143"/>
+      <c r="C96" s="146" t="s">
         <v>483</v>
       </c>
-      <c r="F96" s="129">
+      <c r="F96" s="138">
         <v>6</v>
       </c>
       <c r="G96" s="60" t="s">
@@ -12195,9 +12207,9 @@
       <c r="J96" s="60"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="134"/>
-      <c r="C97" s="137"/>
-      <c r="F97" s="129"/>
+      <c r="A97" s="143"/>
+      <c r="C97" s="146"/>
+      <c r="F97" s="138"/>
       <c r="G97" s="60" t="s">
         <v>486</v>
       </c>
@@ -12208,9 +12220,9 @@
       <c r="J97" s="60"/>
     </row>
     <row r="98" spans="1:10" ht="33.75">
-      <c r="A98" s="134"/>
-      <c r="C98" s="137"/>
-      <c r="F98" s="129"/>
+      <c r="A98" s="143"/>
+      <c r="C98" s="146"/>
+      <c r="F98" s="138"/>
       <c r="G98" s="60" t="s">
         <v>488</v>
       </c>
@@ -12221,9 +12233,9 @@
       <c r="J98" s="60"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="134"/>
-      <c r="C99" s="137"/>
-      <c r="F99" s="129"/>
+      <c r="A99" s="143"/>
+      <c r="C99" s="146"/>
+      <c r="F99" s="138"/>
       <c r="G99" s="60" t="s">
         <v>490</v>
       </c>
@@ -12238,9 +12250,9 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="22.5">
-      <c r="A100" s="134"/>
-      <c r="C100" s="137"/>
-      <c r="F100" s="129"/>
+      <c r="A100" s="143"/>
+      <c r="C100" s="146"/>
+      <c r="F100" s="138"/>
       <c r="G100" s="60" t="s">
         <v>489</v>
       </c>
@@ -12251,9 +12263,9 @@
       <c r="J100" s="60"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="134"/>
-      <c r="C101" s="137"/>
-      <c r="F101" s="129"/>
+      <c r="A101" s="143"/>
+      <c r="C101" s="146"/>
+      <c r="F101" s="138"/>
       <c r="G101" s="60" t="s">
         <v>492</v>
       </c>
@@ -12308,168 +12320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C4F83955AA2A8418BC1D00A818E7A27" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c1be657fc61643787719aed6298a437">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="526cb242-c8bd-4a35-8e8b-b473c98a789f" xmlns:ns3="17cb822f-b77e-4654-a993-e9a6bcd45fbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bf52638a39f11a75731e54553a6b547" ns2:_="" ns3:_="">
-    <xsd:import namespace="526cb242-c8bd-4a35-8e8b-b473c98a789f"/>
-    <xsd:import namespace="17cb822f-b77e-4654-a993-e9a6bcd45fbd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:Process_x0020_Step"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="526cb242-c8bd-4a35-8e8b-b473c98a789f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="17cb822f-b77e-4654-a993-e9a6bcd45fbd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Process_x0020_Step" ma:index="12" ma:displayName="Process Step" ma:default="1-STRATEGY" ma:format="RadioButtons" ma:indexed="true" ma:internalName="Process_x0020_Step">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="1-STRATEGY"/>
-          <xsd:enumeration value="2-QUALIFICATION"/>
-          <xsd:enumeration value="3-CONTRACT"/>
-          <xsd:enumeration value="4-TRANSFORMATION"/>
-          <xsd:enumeration value="5-CLOSING"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9E61DEFE9FE842B6BDD8EF53EBD00D" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="36890f631d9355069a310366f5dfbd25">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns3="a10ff884-cccc-4188-bb72-65ab05dcb4fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8ee114edbf2cfe81bf5ce1ad935a0b7" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -12620,7 +12470,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Statut_x0020_SIPOC xmlns="a10ff884-cccc-4188-bb72-65ab05dcb4fc" xsi:nil="true"/>
@@ -12631,7 +12481,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12641,14 +12491,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610D28F7-1197-4F62-B82D-8E022180B61E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50FC1E6-0D5F-4201-844B-D63EFDA3D489}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="526cb242-c8bd-4a35-8e8b-b473c98a789f"/>
-    <ds:schemaRef ds:uri="17cb822f-b77e-4654-a993-e9a6bcd45fbd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="a10ff884-cccc-4188-bb72-65ab05dcb4fc"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -12660,13 +12510,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50FC1E6-0D5F-4201-844B-D63EFDA3D489}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B83C425C-53FD-470C-A288-33D0EE2D88D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a10ff884-cccc-4188-bb72-65ab05dcb4fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B83C425C-53FD-470C-A288-33D0EE2D88D8}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8F670AB-DDFD-4059-A1C9-DF63B62B5DB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8F670AB-DDFD-4059-A1C9-DF63B62B5DB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>